--- a/Documents/Gantt Chart.xlsx
+++ b/Documents/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunyu\Desktop\s\19s2\COMP8715\Project\energy_storage_rights-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunyu\Desktop\s\19s2\COMP8715\Project\energy_storage_rights-master\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D20C1C8-B309-4762-A8A6-6F6277CEC164}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F4C49-4D27-4352-BCC1-909DEA7A8B0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Week</t>
   </si>
@@ -269,31 +269,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t>User interface design research and improvement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Hei"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-      -Refine more User friendly UI plan
-      -Self-review previous UI structure
-      -Improve and develop on the information panel</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Web host provider research and usage for backend
 </t>
     </r>
@@ -327,6 +302,35 @@
         <family val="2"/>
       </rPr>
       <t>-Compare compatibility, server performance, price, features, customer supports, and server physical locations.</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User interface design research </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t>User interface development and improvement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Hei"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      -Refine more User friendly UI plan
+      -Self-review previous UI structure
+      -Improve and develop on the information panel</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1337,10 +1341,34 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,38 +1383,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1735,11 +1739,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P994"/>
+  <dimension ref="A1:P995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1751,44 +1755,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.4" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" ht="10.8" customHeight="1" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="36.6" thickBot="1">
       <c r="A3" s="56"/>
@@ -1861,22 +1865,22 @@
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="70" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="73"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="81"/>
     </row>
     <row r="6" spans="1:16" ht="14.4" thickBot="1">
       <c r="A6" s="30"/>
@@ -1897,10 +1901,10 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
@@ -1942,12 +1946,12 @@
       <c r="O8" s="11"/>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" spans="1:16" ht="53.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A9" s="37">
         <v>2</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>29</v>
+      <c r="B9" s="46" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="14">
         <v>2</v>
@@ -1968,24 +1972,24 @@
       <c r="O9" s="11"/>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" ht="42.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:16" ht="53.4" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="37">
         <v>3</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>18</v>
+      <c r="B10" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -1994,12 +1998,12 @@
       <c r="O10" s="11"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" ht="111.6" thickTop="1" thickBot="1">
+    <row r="11" spans="1:16" ht="42.6" thickTop="1" thickBot="1">
       <c r="A11" s="37">
         <v>4</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>14</v>
+      <c r="B11" s="47" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="14">
         <v>4</v>
@@ -2012,7 +2016,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="16"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -2020,132 +2024,132 @@
       <c r="O11" s="11"/>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:16" ht="70.2" thickTop="1" thickBot="1">
+    <row r="12" spans="1:16" ht="111.6" thickTop="1" thickBot="1">
       <c r="A12" s="37">
         <v>5</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>28</v>
+      <c r="B12" s="38" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="84" thickTop="1" thickBot="1">
+    <row r="13" spans="1:16" ht="70.2" thickTop="1" thickBot="1">
       <c r="A13" s="37">
         <v>6</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>30</v>
+      <c r="B13" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickTop="1" thickBot="1">
+    <row r="14" spans="1:16" ht="84" thickTop="1" thickBot="1">
       <c r="A14" s="37">
         <v>7</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>19</v>
+      <c r="B14" s="47" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:16" ht="28.8" thickTop="1" thickBot="1">
+    <row r="15" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A15" s="37">
         <v>8</v>
       </c>
-      <c r="B15" s="47" t="s">
-        <v>15</v>
+      <c r="B15" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" ht="15" thickTop="1" thickBot="1">
+    <row r="16" spans="1:16" ht="28.8" thickTop="1" thickBot="1">
       <c r="A16" s="37">
         <v>9</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>20</v>
+      <c r="B16" s="47" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="4"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="13"/>
@@ -2154,37 +2158,37 @@
       <c r="A17" s="37">
         <v>10</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>13</v>
+      <c r="B17" s="46" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+      <c r="M17" s="4"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="1:16" ht="56.4" thickTop="1" thickBot="1">
+    <row r="18" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A18" s="37">
         <v>11</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>16</v>
+      <c r="B18" s="47" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" s="15">
         <v>9</v>
@@ -2194,93 +2198,93 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="11"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="16"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="1:16" ht="15" thickTop="1" thickBot="1">
+    <row r="19" spans="1:16" ht="56.4" thickTop="1" thickBot="1">
       <c r="A19" s="37">
         <v>12</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14">
+        <v>9</v>
+      </c>
+      <c r="D19" s="15">
+        <v>9</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A20" s="37">
+        <v>13</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C20" s="40">
         <v>9</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D20" s="41">
         <v>9</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="45"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" thickTop="1" thickBot="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="19"/>
-    </row>
-    <row r="21" spans="1:16" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A21" s="68" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="45"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A22" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="13"/>
-    </row>
-    <row r="22" spans="1:16" ht="42.6" thickTop="1" thickBot="1">
-      <c r="A22" s="37">
-        <v>1</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="14">
-        <v>2</v>
-      </c>
-      <c r="D22" s="15">
-        <v>2</v>
-      </c>
+      <c r="B22" s="74"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="36"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="12"/>
@@ -2292,22 +2296,22 @@
       <c r="O22" s="11"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:16" ht="15" thickTop="1" thickBot="1">
+    <row r="23" spans="1:16" ht="42.6" thickTop="1" thickBot="1">
       <c r="A23" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>22</v>
+      <c r="B23" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="14">
         <v>2</v>
       </c>
       <c r="D23" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="36"/>
-      <c r="G23" s="16"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="12"/>
       <c r="J23" s="11"/>
@@ -2320,19 +2324,19 @@
     </row>
     <row r="24" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A24" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>23</v>
+      <c r="B24" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="15">
         <v>3</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="16"/>
       <c r="H24" s="11"/>
       <c r="I24" s="12"/>
@@ -2344,23 +2348,23 @@
       <c r="O24" s="11"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" ht="28.8" thickTop="1" thickBot="1">
+    <row r="25" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A25" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="14">
         <v>3</v>
       </c>
       <c r="D25" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="12"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2370,12 +2374,12 @@
       <c r="O25" s="11"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:16" ht="15" thickTop="1" thickBot="1">
+    <row r="26" spans="1:16" ht="28.8" thickTop="1" thickBot="1">
       <c r="A26" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="14">
         <v>3</v>
@@ -2398,23 +2402,23 @@
     </row>
     <row r="27" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A27" s="37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
@@ -2424,13 +2428,13 @@
     </row>
     <row r="28" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A28" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="15">
         <v>6</v>
@@ -2439,7 +2443,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="16"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -2450,16 +2454,16 @@
     </row>
     <row r="29" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A29" s="37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C29" s="14">
         <v>6</v>
       </c>
       <c r="D29" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2467,8 +2471,8 @@
       <c r="H29" s="11"/>
       <c r="I29" s="12"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
@@ -2476,16 +2480,16 @@
     </row>
     <row r="30" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A30" s="37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="14">
         <v>6</v>
       </c>
       <c r="D30" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -2495,57 +2499,65 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16" ht="15" thickTop="1" thickBot="1">
       <c r="A31" s="37">
+        <v>10</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="14">
+        <v>6</v>
+      </c>
+      <c r="D31" s="15">
+        <v>9</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A32" s="37">
         <v>11</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B32" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C32" s="22">
         <v>8</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D32" s="23">
         <v>10</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="54"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" thickTop="1" thickBot="1">
-      <c r="A32" s="32"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-    </row>
-    <row r="33" spans="1:16" ht="14.4" thickBot="1">
-      <c r="A33" s="33"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="54"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" thickTop="1" thickBot="1">
+      <c r="A33" s="32"/>
       <c r="B33" s="29"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2554,13 +2566,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
     </row>
     <row r="34" spans="1:16" ht="14.4" thickBot="1">
       <c r="A34" s="33"/>
@@ -6094,7 +6106,7 @@
       <c r="A230" s="33"/>
       <c r="B230" s="29"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="26"/>
+      <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
@@ -19860,9 +19872,27 @@
       <c r="O994" s="1"/>
       <c r="P994" s="1"/>
     </row>
+    <row r="995" spans="1:16" ht="14.4" thickBot="1">
+      <c r="A995" s="33"/>
+      <c r="B995" s="29"/>
+      <c r="C995" s="1"/>
+      <c r="D995" s="26"/>
+      <c r="E995" s="1"/>
+      <c r="F995" s="1"/>
+      <c r="G995" s="1"/>
+      <c r="H995" s="1"/>
+      <c r="I995" s="1"/>
+      <c r="J995" s="1"/>
+      <c r="K995" s="1"/>
+      <c r="L995" s="1"/>
+      <c r="M995" s="1"/>
+      <c r="N995" s="1"/>
+      <c r="O995" s="1"/>
+      <c r="P995" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="J5:P5"/>
